--- a/data/pca/factorExposure/factorExposure_2009-12-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.004011938811813152</v>
+        <v>0.01684519111561784</v>
       </c>
       <c r="C2">
-        <v>-0.01080556794858591</v>
+        <v>-0.001035246160494949</v>
       </c>
       <c r="D2">
-        <v>-0.003630096548156477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007387042421626681</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002243237350150201</v>
+      </c>
+      <c r="F2">
+        <v>-0.01141268647419389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03143301021591412</v>
+        <v>0.09365336896649971</v>
       </c>
       <c r="C4">
-        <v>-0.1167275854828703</v>
+        <v>-0.01509895947243448</v>
       </c>
       <c r="D4">
-        <v>0.02788971543266148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08416437907880069</v>
+      </c>
+      <c r="E4">
+        <v>-0.02821082312061577</v>
+      </c>
+      <c r="F4">
+        <v>0.0312314257422723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04065845792231609</v>
+        <v>0.157989596538002</v>
       </c>
       <c r="C6">
-        <v>-0.1207337632222051</v>
+        <v>-0.02530207734862209</v>
       </c>
       <c r="D6">
-        <v>-0.04101364303409911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02096415429515499</v>
+      </c>
+      <c r="E6">
+        <v>-0.01129050041349492</v>
+      </c>
+      <c r="F6">
+        <v>0.045642975149926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01207156514505406</v>
+        <v>0.06252912973435019</v>
       </c>
       <c r="C7">
-        <v>-0.08517308953388944</v>
+        <v>0.001855315999788997</v>
       </c>
       <c r="D7">
-        <v>-0.004166936796160424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05360683594845495</v>
+      </c>
+      <c r="E7">
+        <v>-0.01010828685604104</v>
+      </c>
+      <c r="F7">
+        <v>0.04780837668319797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.000588031587763908</v>
+        <v>0.05682464578602634</v>
       </c>
       <c r="C8">
-        <v>-0.07017496706277934</v>
+        <v>0.01392519848841304</v>
       </c>
       <c r="D8">
-        <v>-0.02818668620383659</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03479646392592754</v>
+      </c>
+      <c r="E8">
+        <v>-0.01800950094934729</v>
+      </c>
+      <c r="F8">
+        <v>-0.02770047998331813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02617954944636762</v>
+        <v>0.07101166672329548</v>
       </c>
       <c r="C9">
-        <v>-0.09701128102143629</v>
+        <v>-0.01066108866581105</v>
       </c>
       <c r="D9">
-        <v>0.02963374856954431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08682218889838472</v>
+      </c>
+      <c r="E9">
+        <v>-0.02315153782509493</v>
+      </c>
+      <c r="F9">
+        <v>0.04783668806141598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01291011479846621</v>
+        <v>0.09598864231627977</v>
       </c>
       <c r="C10">
-        <v>-0.02855915552547235</v>
+        <v>-0.02096256175856135</v>
       </c>
       <c r="D10">
-        <v>-0.1241053315469837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1715494094989983</v>
+      </c>
+      <c r="E10">
+        <v>0.03605211524606541</v>
+      </c>
+      <c r="F10">
+        <v>-0.05434648714386089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03111017231716112</v>
+        <v>0.08772425706705443</v>
       </c>
       <c r="C11">
-        <v>-0.1008938400924525</v>
+        <v>-0.01023550080359136</v>
       </c>
       <c r="D11">
-        <v>0.0365734083072759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1159010161938716</v>
+      </c>
+      <c r="E11">
+        <v>-0.04559599947692985</v>
+      </c>
+      <c r="F11">
+        <v>0.02224298323143614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02879788031214321</v>
+        <v>0.09202429763434163</v>
       </c>
       <c r="C12">
-        <v>-0.1115782686936165</v>
+        <v>-0.007356035655689484</v>
       </c>
       <c r="D12">
-        <v>0.03275051342079547</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.131688825919005</v>
+      </c>
+      <c r="E12">
+        <v>-0.04740960991640178</v>
+      </c>
+      <c r="F12">
+        <v>0.0268072810276259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01002343340458944</v>
+        <v>0.04169581898335809</v>
       </c>
       <c r="C13">
-        <v>-0.04002950785644462</v>
+        <v>-0.002899065697818675</v>
       </c>
       <c r="D13">
-        <v>0.02149351956812638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05214303645966769</v>
+      </c>
+      <c r="E13">
+        <v>0.008474136257845381</v>
+      </c>
+      <c r="F13">
+        <v>0.003353659725935364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01630243266089064</v>
+        <v>0.0226539729895198</v>
       </c>
       <c r="C14">
-        <v>-0.02311928939984932</v>
+        <v>-0.01369561197364341</v>
       </c>
       <c r="D14">
-        <v>-0.00257527277216475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03313471190138125</v>
+      </c>
+      <c r="E14">
+        <v>-0.01731553104665058</v>
+      </c>
+      <c r="F14">
+        <v>0.01379609610456365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01094898456023009</v>
+        <v>0.03284782134407506</v>
       </c>
       <c r="C15">
-        <v>-0.02835588188403412</v>
+        <v>-0.004660852010463277</v>
       </c>
       <c r="D15">
-        <v>0.007446029683697113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04514485859989308</v>
+      </c>
+      <c r="E15">
+        <v>-0.006052041423249422</v>
+      </c>
+      <c r="F15">
+        <v>0.02305981538424409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.02064882261700707</v>
+        <v>0.07399669887499108</v>
       </c>
       <c r="C16">
-        <v>-0.1030224511095901</v>
+        <v>-0.001366856255336719</v>
       </c>
       <c r="D16">
-        <v>0.0247437061466178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1253689888503811</v>
+      </c>
+      <c r="E16">
+        <v>-0.06154004108142129</v>
+      </c>
+      <c r="F16">
+        <v>0.02496721999740766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0317647318394725</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003452431096614403</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01973364651762679</v>
+      </c>
+      <c r="E18">
+        <v>0.007229146955805166</v>
+      </c>
+      <c r="F18">
+        <v>-0.003593249058707717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01313709135426709</v>
+        <v>0.06105009572836334</v>
       </c>
       <c r="C20">
-        <v>-0.06206834452870006</v>
+        <v>-1.960716199889733e-05</v>
       </c>
       <c r="D20">
-        <v>-0.002741706509402407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07722238375590187</v>
+      </c>
+      <c r="E20">
+        <v>-0.05543537603146037</v>
+      </c>
+      <c r="F20">
+        <v>0.02321117713321577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01382113654566962</v>
+        <v>0.04019668572900363</v>
       </c>
       <c r="C21">
-        <v>-0.02580016059830035</v>
+        <v>-0.006250427622403785</v>
       </c>
       <c r="D21">
-        <v>0.001573832096259005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03788195993300867</v>
+      </c>
+      <c r="E21">
+        <v>0.005207298359973994</v>
+      </c>
+      <c r="F21">
+        <v>-0.02358913655955252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.005751407703872329</v>
+        <v>0.04377114937248468</v>
       </c>
       <c r="C22">
-        <v>-0.03057322832404584</v>
+        <v>-0.0006921003243383141</v>
       </c>
       <c r="D22">
-        <v>-0.0329047298319989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003973013156188231</v>
+      </c>
+      <c r="E22">
+        <v>-0.03012454083484522</v>
+      </c>
+      <c r="F22">
+        <v>-0.03621333444078533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.005738439259867366</v>
+        <v>0.04375673780858713</v>
       </c>
       <c r="C23">
-        <v>-0.03051062984837777</v>
+        <v>-0.000687800745635181</v>
       </c>
       <c r="D23">
-        <v>-0.03298031608858471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003977746854486074</v>
+      </c>
+      <c r="E23">
+        <v>-0.03032601754989869</v>
+      </c>
+      <c r="F23">
+        <v>-0.03617616420901695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02037770582554335</v>
+        <v>0.08013795863616843</v>
       </c>
       <c r="C24">
-        <v>-0.1072502552014421</v>
+        <v>-0.001841596375574954</v>
       </c>
       <c r="D24">
-        <v>0.03098124578453842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1204419617331637</v>
+      </c>
+      <c r="E24">
+        <v>-0.04876511716413964</v>
+      </c>
+      <c r="F24">
+        <v>0.02670273135194222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02616203200955907</v>
+        <v>0.08498580649717911</v>
       </c>
       <c r="C25">
-        <v>-0.1059241244857933</v>
+        <v>-0.004085966256832775</v>
       </c>
       <c r="D25">
-        <v>0.02909993473127251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1091507632760633</v>
+      </c>
+      <c r="E25">
+        <v>-0.0323491016993455</v>
+      </c>
+      <c r="F25">
+        <v>0.02701657641035282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02522467543309692</v>
+        <v>0.05820064980629017</v>
       </c>
       <c r="C26">
-        <v>-0.05047646333672824</v>
+        <v>-0.01435315739384764</v>
       </c>
       <c r="D26">
-        <v>-0.01416338571517343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04015858361922917</v>
+      </c>
+      <c r="E26">
+        <v>-0.02826565608427357</v>
+      </c>
+      <c r="F26">
+        <v>-0.008871443486847604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.008370144188286846</v>
+        <v>0.1405753706997925</v>
       </c>
       <c r="C28">
-        <v>-0.04567999410065422</v>
+        <v>-0.02039368167918289</v>
       </c>
       <c r="D28">
-        <v>-0.2045000169714007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2613264939408842</v>
+      </c>
+      <c r="E28">
+        <v>0.06701892852527366</v>
+      </c>
+      <c r="F28">
+        <v>0.009884004246487763</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01305558465713018</v>
+        <v>0.02771496526547841</v>
       </c>
       <c r="C29">
-        <v>-0.02752468945344914</v>
+        <v>-0.008122665819219711</v>
       </c>
       <c r="D29">
-        <v>-0.005952698372573736</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03196681821529689</v>
+      </c>
+      <c r="E29">
+        <v>-0.01139922748089927</v>
+      </c>
+      <c r="F29">
+        <v>-0.0110596856810009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.01703407583890031</v>
+        <v>0.0610465002443731</v>
       </c>
       <c r="C30">
-        <v>-0.127046352825467</v>
+        <v>-0.003036936785378778</v>
       </c>
       <c r="D30">
-        <v>0.02265657725295447</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08942826615407803</v>
+      </c>
+      <c r="E30">
+        <v>-0.01932769162538276</v>
+      </c>
+      <c r="F30">
+        <v>0.08368450737024007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02201335010785846</v>
+        <v>0.04989304592574965</v>
       </c>
       <c r="C31">
-        <v>-0.03537199773863878</v>
+        <v>-0.01507137939079096</v>
       </c>
       <c r="D31">
-        <v>-0.0003161574982848332</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02514222865053897</v>
+      </c>
+      <c r="E31">
+        <v>-0.02752044642697006</v>
+      </c>
+      <c r="F31">
+        <v>-0.002432884044251612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.008851603325274564</v>
+        <v>0.05034414497019338</v>
       </c>
       <c r="C32">
-        <v>-0.05663187624248729</v>
+        <v>0.001715523448624444</v>
       </c>
       <c r="D32">
-        <v>-0.02264143317478252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03617785844110806</v>
+      </c>
+      <c r="E32">
+        <v>-0.03107873514474468</v>
+      </c>
+      <c r="F32">
+        <v>0.00309558803335486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02314810834797892</v>
+        <v>0.08912245408948423</v>
       </c>
       <c r="C33">
-        <v>-0.1074681478347302</v>
+        <v>-0.00744011293909372</v>
       </c>
       <c r="D33">
-        <v>0.02729889067376522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09940255696963099</v>
+      </c>
+      <c r="E33">
+        <v>-0.04370672986514882</v>
+      </c>
+      <c r="F33">
+        <v>0.03576976871013339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.02873773043007671</v>
+        <v>0.06794543820606795</v>
       </c>
       <c r="C34">
-        <v>-0.09404207595705263</v>
+        <v>-0.01033772247213135</v>
       </c>
       <c r="D34">
-        <v>0.02208908047880383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1070760253098639</v>
+      </c>
+      <c r="E34">
+        <v>-0.03430155841897267</v>
+      </c>
+      <c r="F34">
+        <v>0.03393653966479738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003837473941514545</v>
+        <v>0.02434001673136108</v>
       </c>
       <c r="C35">
-        <v>-0.01411633218321437</v>
+        <v>-0.002355727257879653</v>
       </c>
       <c r="D35">
-        <v>0.001984527167677989</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01164552237882566</v>
+      </c>
+      <c r="E35">
+        <v>-0.01166818349771584</v>
+      </c>
+      <c r="F35">
+        <v>0.0009691475306250672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01116106460217162</v>
+        <v>0.02797468194850577</v>
       </c>
       <c r="C36">
-        <v>-0.02243152477748931</v>
+        <v>-0.007015162065819021</v>
       </c>
       <c r="D36">
-        <v>0.009789770466660424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03932372267063663</v>
+      </c>
+      <c r="E36">
+        <v>-0.01638985459665851</v>
+      </c>
+      <c r="F36">
+        <v>0.01513799986654653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002819242295220598</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>6.782158349410931e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0003927715965780896</v>
+      </c>
+      <c r="E37">
+        <v>0.0004342475986515278</v>
+      </c>
+      <c r="F37">
+        <v>0.0007093859399365342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0006624851388056434</v>
+        <v>0.001543794977667403</v>
       </c>
       <c r="C38">
-        <v>-0.004199887854362867</v>
+        <v>-0.0002613062686091824</v>
       </c>
       <c r="D38">
-        <v>-0.002828832001338478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0003427087396635532</v>
+      </c>
+      <c r="E38">
+        <v>-0.0003425597412827913</v>
+      </c>
+      <c r="F38">
+        <v>-0.0008636360325281505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04433350500223021</v>
+        <v>0.1052525439341694</v>
       </c>
       <c r="C39">
-        <v>-0.1610527513347754</v>
+        <v>-0.01535980861498362</v>
       </c>
       <c r="D39">
-        <v>0.04988936076846659</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.153946947617347</v>
+      </c>
+      <c r="E39">
+        <v>-0.05882607502450051</v>
+      </c>
+      <c r="F39">
+        <v>0.02930225724552429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01146179521495406</v>
+        <v>0.0409572227423932</v>
       </c>
       <c r="C40">
-        <v>-0.01227000984584309</v>
+        <v>-0.006685200815354139</v>
       </c>
       <c r="D40">
-        <v>-0.01000880402146578</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03258799530808047</v>
+      </c>
+      <c r="E40">
+        <v>-0.003306577723953858</v>
+      </c>
+      <c r="F40">
+        <v>-0.01537680821374117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01161241794501494</v>
+        <v>0.02791795153440445</v>
       </c>
       <c r="C41">
-        <v>-0.01824278526834806</v>
+        <v>-0.00670581596374005</v>
       </c>
       <c r="D41">
-        <v>-0.01376136569723549</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01032461839139856</v>
+      </c>
+      <c r="E41">
+        <v>-0.01235942629870843</v>
+      </c>
+      <c r="F41">
+        <v>-0.006498941680873811</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01353307639726798</v>
+        <v>0.04081049675718581</v>
       </c>
       <c r="C43">
-        <v>-0.02772325145175998</v>
+        <v>-0.006746973460237188</v>
       </c>
       <c r="D43">
-        <v>-0.008572985936662626</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01969605909199187</v>
+      </c>
+      <c r="E43">
+        <v>-0.02455048242566149</v>
+      </c>
+      <c r="F43">
+        <v>-0.01289736263170389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03340750069161167</v>
+        <v>0.07993922511895737</v>
       </c>
       <c r="C44">
-        <v>-0.1235140713282988</v>
+        <v>-0.01961870209155892</v>
       </c>
       <c r="D44">
-        <v>0.002744307659843984</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0974025966613527</v>
+      </c>
+      <c r="E44">
+        <v>-0.06449133147514144</v>
+      </c>
+      <c r="F44">
+        <v>0.1567452039506688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005546106106926595</v>
+        <v>0.0232504817713341</v>
       </c>
       <c r="C46">
-        <v>-0.006189656870020964</v>
+        <v>-0.003452337039490333</v>
       </c>
       <c r="D46">
-        <v>-0.02111616879373454</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01328076736621168</v>
+      </c>
+      <c r="E46">
+        <v>-0.02229695504053993</v>
+      </c>
+      <c r="F46">
+        <v>-0.005534840265762485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01135588345576997</v>
+        <v>0.0512496874317827</v>
       </c>
       <c r="C47">
-        <v>-0.03393996945413545</v>
+        <v>-0.003257033142059416</v>
       </c>
       <c r="D47">
-        <v>-0.03252090272818169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01405431264744098</v>
+      </c>
+      <c r="E47">
+        <v>-0.02349356166784766</v>
+      </c>
+      <c r="F47">
+        <v>-0.03349674696519123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0128436645865973</v>
+        <v>0.05009526732977414</v>
       </c>
       <c r="C48">
-        <v>-0.04889255873471236</v>
+        <v>-0.002314019005427239</v>
       </c>
       <c r="D48">
-        <v>0.0187318889661564</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04954747373277962</v>
+      </c>
+      <c r="E48">
+        <v>0.006587590493227787</v>
+      </c>
+      <c r="F48">
+        <v>0.009658840533036662</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.04179561235169948</v>
+        <v>0.1999690001475171</v>
       </c>
       <c r="C49">
-        <v>-0.2211003416494096</v>
+        <v>-0.01853317835707603</v>
       </c>
       <c r="D49">
-        <v>-0.06113219381050375</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007695684010241124</v>
+      </c>
+      <c r="E49">
+        <v>-0.03079535354493885</v>
+      </c>
+      <c r="F49">
+        <v>0.0397797742333825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.01895086733052089</v>
+        <v>0.05083541665254723</v>
       </c>
       <c r="C50">
-        <v>-0.03963136253448784</v>
+        <v>-0.01114912530519171</v>
       </c>
       <c r="D50">
-        <v>-0.00697915891128203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02352871358971282</v>
+      </c>
+      <c r="E50">
+        <v>-0.0293250619787985</v>
+      </c>
+      <c r="F50">
+        <v>0.00917966641276468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0001204507165293719</v>
+        <v>0.0001987221977261602</v>
       </c>
       <c r="C51">
-        <v>-0.0002118791910897265</v>
+        <v>-6.217028446838088e-05</v>
       </c>
       <c r="D51">
-        <v>-0.0007031016571022075</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0004044270056660597</v>
+      </c>
+      <c r="E51">
+        <v>0.0005074724553440127</v>
+      </c>
+      <c r="F51">
+        <v>0.002206910621366899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03358108588244872</v>
+        <v>0.1463610027649721</v>
       </c>
       <c r="C52">
-        <v>-0.1525903807161004</v>
+        <v>-0.01536802278253585</v>
       </c>
       <c r="D52">
-        <v>0.02234622614299923</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.044868751696418</v>
+      </c>
+      <c r="E52">
+        <v>-0.02024053413069041</v>
+      </c>
+      <c r="F52">
+        <v>0.04105000544559991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03474113107008334</v>
+        <v>0.1721907814003941</v>
       </c>
       <c r="C53">
-        <v>-0.1731158277951416</v>
+        <v>-0.01858710316166934</v>
       </c>
       <c r="D53">
-        <v>-0.01034780155586853</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0060101931247536</v>
+      </c>
+      <c r="E53">
+        <v>-0.03104387787398388</v>
+      </c>
+      <c r="F53">
+        <v>0.0719809593125177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01640032511770834</v>
+        <v>0.02281276177110815</v>
       </c>
       <c r="C54">
-        <v>-0.03729204118472233</v>
+        <v>-0.01244512865930242</v>
       </c>
       <c r="D54">
-        <v>-0.003419068920950196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03346153764568215</v>
+      </c>
+      <c r="E54">
+        <v>-0.01825687131489915</v>
+      </c>
+      <c r="F54">
+        <v>-0.00290692329211133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02654582397787627</v>
+        <v>0.1140136274758048</v>
       </c>
       <c r="C55">
-        <v>-0.09064843504544851</v>
+        <v>-0.01622803708191463</v>
       </c>
       <c r="D55">
-        <v>-0.0008397088261783597</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009819631630799968</v>
+      </c>
+      <c r="E55">
+        <v>-0.02799794746756538</v>
+      </c>
+      <c r="F55">
+        <v>0.04635701840882573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.0355698773415909</v>
+        <v>0.1768299429680518</v>
       </c>
       <c r="C56">
-        <v>-0.1608481337402361</v>
+        <v>-0.01607477743793966</v>
       </c>
       <c r="D56">
-        <v>-0.02142719586040156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001074497657590054</v>
+      </c>
+      <c r="E56">
+        <v>-0.03533992065761108</v>
+      </c>
+      <c r="F56">
+        <v>0.05021598751869127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01310561587177882</v>
+        <v>0.04587271997376681</v>
       </c>
       <c r="C58">
-        <v>-0.04998226994819154</v>
+        <v>-0.0003257616156920593</v>
       </c>
       <c r="D58">
-        <v>0.01325104692736122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06730681105961425</v>
+      </c>
+      <c r="E58">
+        <v>-0.02700853049681044</v>
+      </c>
+      <c r="F58">
+        <v>-0.03547939538803567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.0174604167897158</v>
+        <v>0.1679901366251804</v>
       </c>
       <c r="C59">
-        <v>-0.1027826923660264</v>
+        <v>-0.02095491232962653</v>
       </c>
       <c r="D59">
-        <v>-0.2153166106482985</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2177277642178877</v>
+      </c>
+      <c r="E59">
+        <v>0.04551736580968434</v>
+      </c>
+      <c r="F59">
+        <v>-0.0343405345999981</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.03223320254085158</v>
+        <v>0.2312053462177619</v>
       </c>
       <c r="C60">
-        <v>-0.2759768878636819</v>
+        <v>0.003148378310283897</v>
       </c>
       <c r="D60">
-        <v>0.002526120967325849</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04240018307477808</v>
+      </c>
+      <c r="E60">
+        <v>-0.0112260881567945</v>
+      </c>
+      <c r="F60">
+        <v>-0.006474180386264776</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03158682731615405</v>
+        <v>0.08189067089162008</v>
       </c>
       <c r="C61">
-        <v>-0.1211912216553997</v>
+        <v>-0.01139666157176567</v>
       </c>
       <c r="D61">
-        <v>0.02017314268448969</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1163690931105049</v>
+      </c>
+      <c r="E61">
+        <v>-0.03834070898493296</v>
+      </c>
+      <c r="F61">
+        <v>0.01175313758744379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.03758378664258844</v>
+        <v>0.1706692488322157</v>
       </c>
       <c r="C62">
-        <v>-0.1634186039956559</v>
+        <v>-0.0195305507253123</v>
       </c>
       <c r="D62">
-        <v>-0.01461621674660349</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006645710978185673</v>
+      </c>
+      <c r="E62">
+        <v>-0.03497424066927082</v>
+      </c>
+      <c r="F62">
+        <v>0.03242895202359047</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0122622416076164</v>
+        <v>0.04573275340679656</v>
       </c>
       <c r="C63">
-        <v>-0.05059962889055881</v>
+        <v>-0.001809928015755544</v>
       </c>
       <c r="D63">
-        <v>0.01411241943415998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05856561433479031</v>
+      </c>
+      <c r="E63">
+        <v>-0.02161131262013322</v>
+      </c>
+      <c r="F63">
+        <v>0.005831573824116389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0254720596643763</v>
+        <v>0.1107332120746105</v>
       </c>
       <c r="C64">
-        <v>-0.09566698480583666</v>
+        <v>-0.01092578802181011</v>
       </c>
       <c r="D64">
-        <v>-0.006630168396621317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04274888527884111</v>
+      </c>
+      <c r="E64">
+        <v>-0.02410404800321984</v>
+      </c>
+      <c r="F64">
+        <v>0.02601097880329538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.04163143810116942</v>
+        <v>0.1477976186917366</v>
       </c>
       <c r="C65">
-        <v>-0.1111126082493294</v>
+        <v>-0.03250033228746129</v>
       </c>
       <c r="D65">
-        <v>-0.03098080045274891</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04027030627910329</v>
+      </c>
+      <c r="E65">
+        <v>-0.004813286497245183</v>
+      </c>
+      <c r="F65">
+        <v>0.0392258596088066</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04250075996247011</v>
+        <v>0.124807875955754</v>
       </c>
       <c r="C66">
-        <v>-0.188609776770393</v>
+        <v>-0.01344314072307187</v>
       </c>
       <c r="D66">
-        <v>0.04639566656201716</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.142341821088466</v>
+      </c>
+      <c r="E66">
+        <v>-0.06608623831053752</v>
+      </c>
+      <c r="F66">
+        <v>0.03159420606042657</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01512400450817097</v>
+        <v>0.06078041985050321</v>
       </c>
       <c r="C67">
-        <v>-0.07542404307997261</v>
+        <v>-0.003059720625756623</v>
       </c>
       <c r="D67">
-        <v>0.01160837360481834</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05531107801747686</v>
+      </c>
+      <c r="E67">
+        <v>-0.01731431063782804</v>
+      </c>
+      <c r="F67">
+        <v>-0.03415475235052221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01811241534485572</v>
+        <v>0.1169572980673023</v>
       </c>
       <c r="C68">
-        <v>-0.02954173897943533</v>
+        <v>-0.03145416454410412</v>
       </c>
       <c r="D68">
-        <v>-0.179705241740192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2614922607329045</v>
+      </c>
+      <c r="E68">
+        <v>0.08670255550087322</v>
+      </c>
+      <c r="F68">
+        <v>0.005278659993852419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.006568951653438041</v>
+        <v>0.03984999840916714</v>
       </c>
       <c r="C69">
-        <v>-0.03596729967612946</v>
+        <v>-0.001329856657665081</v>
       </c>
       <c r="D69">
-        <v>-0.01221470157534183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00704823699224784</v>
+      </c>
+      <c r="E69">
+        <v>-0.0227042271688961</v>
+      </c>
+      <c r="F69">
+        <v>-0.0005867883497591718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.000107066432450675</v>
+        <v>0.06594641488461578</v>
       </c>
       <c r="C70">
-        <v>-0.03662852652501647</v>
+        <v>0.02803377131015759</v>
       </c>
       <c r="D70">
-        <v>0.00260189631477202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02455413198303015</v>
+      </c>
+      <c r="E70">
+        <v>0.03959325408820454</v>
+      </c>
+      <c r="F70">
+        <v>-0.1857878517893826</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.02225590563926848</v>
+        <v>0.1367920758175867</v>
       </c>
       <c r="C71">
-        <v>-0.04096523785317361</v>
+        <v>-0.03578872678431861</v>
       </c>
       <c r="D71">
-        <v>-0.1935078464509149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2733204990831403</v>
+      </c>
+      <c r="E71">
+        <v>0.09596680168664537</v>
+      </c>
+      <c r="F71">
+        <v>0.01196054653046796</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03862447631527392</v>
+        <v>0.1419367306327036</v>
       </c>
       <c r="C72">
-        <v>-0.12489710796232</v>
+        <v>-0.02586729151829926</v>
       </c>
       <c r="D72">
-        <v>-0.03650713598309976</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001058365022394304</v>
+      </c>
+      <c r="E72">
+        <v>-0.03818853733031751</v>
+      </c>
+      <c r="F72">
+        <v>0.03334269273525777</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.03681193768922281</v>
+        <v>0.200622569951721</v>
       </c>
       <c r="C73">
-        <v>-0.2098508422794537</v>
+        <v>-0.01206975669498949</v>
       </c>
       <c r="D73">
-        <v>-0.045885013088871</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01749590422178717</v>
+      </c>
+      <c r="E73">
+        <v>-0.06372964806797407</v>
+      </c>
+      <c r="F73">
+        <v>0.03900436823096428</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.02265254310980019</v>
+        <v>0.09468665122330959</v>
       </c>
       <c r="C74">
-        <v>-0.1123250760661994</v>
+        <v>-0.01302236976891412</v>
       </c>
       <c r="D74">
-        <v>-0.02534225924041384</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01694609058441264</v>
+      </c>
+      <c r="E74">
+        <v>-0.04344524146470335</v>
+      </c>
+      <c r="F74">
+        <v>0.05596302662787854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04405533406656285</v>
+        <v>0.1281957133399884</v>
       </c>
       <c r="C75">
-        <v>-0.135064913113749</v>
+        <v>-0.02747485980455084</v>
       </c>
       <c r="D75">
-        <v>-0.02678851871804747</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0303338928311194</v>
+      </c>
+      <c r="E75">
+        <v>-0.05797555798207947</v>
+      </c>
+      <c r="F75">
+        <v>0.01783186644448518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0001350058970305715</v>
+        <v>0.0003926869334441714</v>
       </c>
       <c r="C76">
-        <v>-0.001257909188812194</v>
+        <v>-0.0001293872053495586</v>
       </c>
       <c r="D76">
-        <v>-0.00183682335561666</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0007336257652140043</v>
+      </c>
+      <c r="E76">
+        <v>0.0002573203380388786</v>
+      </c>
+      <c r="F76">
+        <v>0.0004397013254258379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02631332003782816</v>
+        <v>0.08654186347862884</v>
       </c>
       <c r="C77">
-        <v>-0.1022367492837438</v>
+        <v>-0.007977649217046056</v>
       </c>
       <c r="D77">
-        <v>0.04683376812845896</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1133823389163355</v>
+      </c>
+      <c r="E77">
+        <v>-0.03920017486218443</v>
+      </c>
+      <c r="F77">
+        <v>0.0334422327883346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.05625818857340548</v>
+        <v>0.1001068717684955</v>
       </c>
       <c r="C78">
-        <v>-0.1400336714244303</v>
+        <v>-0.03915643067616864</v>
       </c>
       <c r="D78">
-        <v>-0.01235489343643619</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1165005986560987</v>
+      </c>
+      <c r="E78">
+        <v>-0.07394045360481874</v>
+      </c>
+      <c r="F78">
+        <v>0.04583488067295335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.03866627433057989</v>
+        <v>0.1646317493415498</v>
       </c>
       <c r="C79">
-        <v>-0.1443690437592067</v>
+        <v>-0.02214091394339383</v>
       </c>
       <c r="D79">
-        <v>-0.02676191591457715</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01487589667873017</v>
+      </c>
+      <c r="E79">
+        <v>-0.04591084934380252</v>
+      </c>
+      <c r="F79">
+        <v>0.01040099605968231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.01035820300300993</v>
+        <v>0.08274424078060283</v>
       </c>
       <c r="C80">
-        <v>-0.08363191668136692</v>
+        <v>0.001019096353347458</v>
       </c>
       <c r="D80">
-        <v>-0.004785439404072153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05645508620859131</v>
+      </c>
+      <c r="E80">
+        <v>-0.03669014012061184</v>
+      </c>
+      <c r="F80">
+        <v>-0.02358655724791558</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04578569078089301</v>
+        <v>0.1216293874641208</v>
       </c>
       <c r="C81">
-        <v>-0.1338019251696072</v>
+        <v>-0.03147472500505681</v>
       </c>
       <c r="D81">
-        <v>-0.01547445224522447</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01582317369285433</v>
+      </c>
+      <c r="E81">
+        <v>-0.05746202310852171</v>
+      </c>
+      <c r="F81">
+        <v>0.01570723758610991</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.04076313132455504</v>
+        <v>0.1662561279465511</v>
       </c>
       <c r="C82">
-        <v>-0.164256620003372</v>
+        <v>-0.0238607860310238</v>
       </c>
       <c r="D82">
-        <v>-0.01746953704255393</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.0040295865549472</v>
+      </c>
+      <c r="E82">
+        <v>-0.02793866219293275</v>
+      </c>
+      <c r="F82">
+        <v>0.0792347206485466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01804326342678716</v>
+        <v>0.06014241805482529</v>
       </c>
       <c r="C83">
-        <v>-0.06709347386678215</v>
+        <v>-0.002718942162439853</v>
       </c>
       <c r="D83">
-        <v>0.00834529823018863</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05121393189036996</v>
+      </c>
+      <c r="E83">
+        <v>-0.005192446900768803</v>
+      </c>
+      <c r="F83">
+        <v>-0.03186144628746855</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02714395596270642</v>
+        <v>0.0587163375519409</v>
       </c>
       <c r="C84">
-        <v>-0.07841420099091324</v>
+        <v>-0.01083486118238356</v>
       </c>
       <c r="D84">
-        <v>0.03294861716053033</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06397296493550751</v>
+      </c>
+      <c r="E84">
+        <v>-0.006535722615556087</v>
+      </c>
+      <c r="F84">
+        <v>0.004282650298652964</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.03997278521321553</v>
+        <v>0.1365551616003136</v>
       </c>
       <c r="C85">
-        <v>-0.1198090798028033</v>
+        <v>-0.02739614487459537</v>
       </c>
       <c r="D85">
-        <v>-0.01443228201905226</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01115687733136933</v>
+      </c>
+      <c r="E85">
+        <v>-0.03858103997734483</v>
+      </c>
+      <c r="F85">
+        <v>0.04445490637307094</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.01179801811536748</v>
+        <v>0.09392509085372665</v>
       </c>
       <c r="C86">
-        <v>-0.08642709340509196</v>
+        <v>0.006499198531669522</v>
       </c>
       <c r="D86">
-        <v>-0.16317044038875</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04221489537670571</v>
+      </c>
+      <c r="E86">
+        <v>-0.2146534519162729</v>
+      </c>
+      <c r="F86">
+        <v>-0.907662621576079</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04032185492502755</v>
+        <v>0.09688357845547557</v>
       </c>
       <c r="C87">
-        <v>-0.1075104481034906</v>
+        <v>-0.01935519319647351</v>
       </c>
       <c r="D87">
-        <v>0.06033246116928703</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09664658212953997</v>
+      </c>
+      <c r="E87">
+        <v>0.05073785230845806</v>
+      </c>
+      <c r="F87">
+        <v>0.05413035215500504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01420245396612339</v>
+        <v>0.06065760800777775</v>
       </c>
       <c r="C88">
-        <v>-0.06000157553752264</v>
+        <v>-0.002034605633172933</v>
       </c>
       <c r="D88">
-        <v>0.002549261810989102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04956701171525239</v>
+      </c>
+      <c r="E88">
+        <v>-0.02444561915350951</v>
+      </c>
+      <c r="F88">
+        <v>0.01195240299040641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.00367274698453317</v>
+        <v>0.1337173194562228</v>
       </c>
       <c r="C89">
-        <v>-0.05735828229742043</v>
+        <v>-0.01320824018450873</v>
       </c>
       <c r="D89">
-        <v>-0.2247064851853564</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2506198064256491</v>
+      </c>
+      <c r="E89">
+        <v>0.09067859751934713</v>
+      </c>
+      <c r="F89">
+        <v>-0.007875575222152056</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.02100372246553242</v>
+        <v>0.1506327203250903</v>
       </c>
       <c r="C90">
-        <v>-0.0457625752167772</v>
+        <v>-0.032055222798501</v>
       </c>
       <c r="D90">
-        <v>-0.2021520863466878</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2693906004977608</v>
+      </c>
+      <c r="E90">
+        <v>0.1120146815550299</v>
+      </c>
+      <c r="F90">
+        <v>-0.001439624015514386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02551122531241693</v>
+        <v>0.1205320540247381</v>
       </c>
       <c r="C91">
-        <v>-0.09971693327053785</v>
+        <v>-0.01864032691500895</v>
       </c>
       <c r="D91">
-        <v>-0.01542292261467883</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01292812319330267</v>
+      </c>
+      <c r="E91">
+        <v>-0.05617470498690934</v>
+      </c>
+      <c r="F91">
+        <v>-0.003237670994558964</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.006818469830354029</v>
+        <v>0.1475634971716048</v>
       </c>
       <c r="C92">
-        <v>-0.06208871242923415</v>
+        <v>-0.02362974151525848</v>
       </c>
       <c r="D92">
-        <v>-0.2220827463302153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2914569270854994</v>
+      </c>
+      <c r="E92">
+        <v>0.1006460792704978</v>
+      </c>
+      <c r="F92">
+        <v>-0.01334853993218042</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.0189481889597876</v>
+        <v>0.1521044676454037</v>
       </c>
       <c r="C93">
-        <v>-0.05762128360031319</v>
+        <v>-0.02783837552877868</v>
       </c>
       <c r="D93">
-        <v>-0.2270781194155446</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2687347414278138</v>
+      </c>
+      <c r="E93">
+        <v>0.07707612322018161</v>
+      </c>
+      <c r="F93">
+        <v>0.002980942164491994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04282620086364459</v>
+        <v>0.1306623415821687</v>
       </c>
       <c r="C94">
-        <v>-0.1481233115592966</v>
+        <v>-0.02432732517695934</v>
       </c>
       <c r="D94">
-        <v>-0.010880362058539</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04282183682892535</v>
+      </c>
+      <c r="E94">
+        <v>-0.05758510609315684</v>
+      </c>
+      <c r="F94">
+        <v>0.03541274497365014</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.02727176296134986</v>
+        <v>0.1273036952289267</v>
       </c>
       <c r="C95">
-        <v>-0.1404642122037844</v>
+        <v>-0.003512144598107778</v>
       </c>
       <c r="D95">
-        <v>0.02356765378973374</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09148003538971569</v>
+      </c>
+      <c r="E95">
+        <v>-0.04630293534585328</v>
+      </c>
+      <c r="F95">
+        <v>-0.006745491253253667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.971910233639564</v>
+        <v>0.1046643460567737</v>
       </c>
       <c r="C96">
-        <v>-0.2173889048746081</v>
+        <v>0.9876780006674923</v>
       </c>
       <c r="D96">
-        <v>-0.02475412621668685</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04834859838205403</v>
+      </c>
+      <c r="E96">
+        <v>-0.0553052591045319</v>
+      </c>
+      <c r="F96">
+        <v>0.04232881147738352</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.005119292319882675</v>
+        <v>0.1931803907193912</v>
       </c>
       <c r="C97">
-        <v>-0.1537663880404363</v>
+        <v>0.007632172090838166</v>
       </c>
       <c r="D97">
-        <v>-0.05980767332850347</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01785472191120535</v>
+      </c>
+      <c r="E97">
+        <v>-0.0181014361191153</v>
+      </c>
+      <c r="F97">
+        <v>-0.09184035557610457</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.02978894356696908</v>
+        <v>0.2042116105756819</v>
       </c>
       <c r="C98">
-        <v>-0.2009024291011119</v>
+        <v>-0.006834260630381228</v>
       </c>
       <c r="D98">
-        <v>-0.01269580848174066</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01423078066254943</v>
+      </c>
+      <c r="E98">
+        <v>0.08320269392520245</v>
+      </c>
+      <c r="F98">
+        <v>-0.09418066359764787</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.005094614004763835</v>
+        <v>0.05571243840685659</v>
       </c>
       <c r="C99">
-        <v>-0.06210750210858813</v>
+        <v>0.004984487245371887</v>
       </c>
       <c r="D99">
-        <v>-0.006574380440482779</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03980860570104706</v>
+      </c>
+      <c r="E99">
+        <v>-0.02306782429797927</v>
+      </c>
+      <c r="F99">
+        <v>0.001335518290031879</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.005015743497633378</v>
+        <v>0.1251158296823935</v>
       </c>
       <c r="C100">
-        <v>-0.1719709065489305</v>
+        <v>0.05489840727040019</v>
       </c>
       <c r="D100">
-        <v>0.7487991771435594</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3432012400363882</v>
+      </c>
+      <c r="E100">
+        <v>0.8894687160594703</v>
+      </c>
+      <c r="F100">
+        <v>-0.1430019217745138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01306802853188787</v>
+        <v>0.02764563693301006</v>
       </c>
       <c r="C101">
-        <v>-0.0275429415359992</v>
+        <v>-0.00813464973992554</v>
       </c>
       <c r="D101">
-        <v>-0.005899626944842452</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03162980952811952</v>
+      </c>
+      <c r="E101">
+        <v>-0.01080194061430552</v>
+      </c>
+      <c r="F101">
+        <v>-0.01235436147730865</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
